--- a/Lab 3 Data/Excel Files/RWHEEL_T20.xlsx
+++ b/Lab 3 Data/Excel Files/RWHEEL_T20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/GitHub Repositories/ASEN-3801-Lab-3/Lab 3 Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/GitHub Repositories/ASEN-3801-Lab-3/Lab 3 Data/Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D291749-CFC4-834E-B30C-6A6ED7519170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEE9E761-0D16-354F-ADD3-E48351FDD3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{5FF1670C-56DB-C54D-8078-4C4784A8E79D}"/>
+    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{A47A8D31-1308-0B42-B0E8-AC3BD38F9501}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A3BD4751-5637-4049-A030-A746F69346F3}" name="RWHEEL_T20" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{CD9581E9-1C4A-5A4E-AFDD-27D0283755C0}" name="RWHEEL_T20" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/andrew/Documents/GitHub Repositories/ASEN-3801-Lab-3/Lab 3 Data/RWHEEL_T20.csv">
       <textFields count="5">
         <textField/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RWHEEL_T20" connectionId="1" xr16:uid="{5A3B34DF-E420-1E4D-B3EF-3FB89F1D5746}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RWHEEL_T20" connectionId="1" xr16:uid="{919CFF13-62D7-C242-98E0-D2B16F954B56}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A91FF7-11EE-0C47-9005-0B54F0CFFB7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435D04E9-C60D-0D4B-AC09-7D044742124A}">
   <dimension ref="A1:E703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
